--- a/outputs/PATTAYA4.xlsx
+++ b/outputs/PATTAYA4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: Abi is making travel arrangements and would likely want to know where other attendees are staying to possibly coordinate accommodations or ensure she is in a convenient location. This information is directly relevant to her travel plans and would help her feel more comfortable and prepared for the conference.</t>
+Why: Abi is making travel arrangements and knowing where people are staying is a logical step in this process. This aligns with her motivation to accomplish her tasks effectively. Additionally, gathering information about accommodation options is part of her comprehensive information processing style, as it helps her form a complete understanding of her travel plans.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Attending" section is clearly labeled in the navigation menu, and it is reasonable for Abi to infer that information about where people are staying might be under this section. This aligns with her motivation to make travel arrangements and her comprehensive information processing style, as she would logically follow the menu options to find the relevant information.</t>
+Facets: Information Processing Style, Motivations
+Why: The "Attending" section is clearly visible on the page, and it is logical for Abi to click on it to find information about where people are staying. This aligns with her motivation to gather necessary travel information and her comprehensive information processing style, as she would look for relevant sections that might provide the details she needs.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking on "Attending," Abi is presented with a dropdown menu that includes "Accommodation" and "Venue: Fairmont The Queen Elizabeth Hotel." This directly aligns with her subgoal of finding out where people are staying. The presence of relevant options in the dropdown menu provides clear and direct paths to the information she needs, thus confirming she did the right thing and is making progress toward her goal.</t>
+Facets: Information Processing Style, Motivations
+Why: After clicking on "Attending," Abi is presented with a dropdown menu that includes options such as "Accommodation" and "Venue: Fairmont The Queen Elizabeth Hotel." These options are directly related to her goal of finding out where people are staying. This clear and relevant information helps Abi know she is making progress toward her goal and provides her with the necessary details to continue her travel arrangements.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The dropdown menu under "Attending" is clear and intuitive, listing "Accommodation" as an option. Abi, who is looking for information on where people are staying, will recognize "Accommodation" as directly relevant to her subgoal. This straightforward labeling aligns with her motivations and comprehensive information processing style, making it easy for her to know what to do next and take this action confidently.</t>
+Facets: Information Processing Style, Motivations
+Why: The dropdown menu under "Attending" clearly lists "Accommodation" as an option. This is directly related to Abi's goal of finding out where people are staying. The page is straightforward and provides a logical next step for her to click on "Accommodation" to get the information she needs. This aligns with her motivation to gather necessary travel information and her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking on "Accommodation," Abi is directed to a page that provides detailed information about the conference hotel, including its name, location, amenities, and benefits of staying there. This directly addresses her subgoal of knowing where people are staying. The page also includes specific instructions for hotel registration and additional contextual details, aligning with her need for comprehensive information. Therefore, Abi will know she did the right thing and can confidently make progress toward her goal.</t>
+Facets: Information Processing Style, Motivations
+Why: After clicking on "Accommodation," Abi is directed to a page that provides detailed information about the conference hotel, including its name, location, amenities, and reasons to stay there. This comprehensive information aligns with Abi's information processing style, as it allows her to gather all the necessary details to make an informed decision about where to stay. The page clearly indicates that she is making progress toward her goal of finding out where people are staying, and it provides all the relevant information she needs.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: Information Processing Style
-Why: The page Abi is currently on contains detailed information about the accommodation, and it is designed in a way that naturally encourages scrolling. Given Abi's comprehensive information processing style, she will likely scroll down to ensure she has all the relevant details. The page layout and content provide clear and useful information, making it easy for her to know that scrolling is the next logical step to gather all the necessary information.</t>
+Why: The page provides a clear and detailed overview of the accommodation options, including the hotel name, location, and amenities. Scrolling down is a natural action for Abi to take to gather more information, which aligns with her comprehensive information processing style. The page is well-structured and provides relevant details, making it easy for Abi to know what to do next and continue gathering the information she needs.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page contains comprehensive details about the accommodation, including hotel registration options, benefits of staying at the conference hotel, and the hotel's address. By scrolling, Abi will see the full extent of this information, confirming that she is making progress toward her goal. The detailed and organized presentation ensures that Abi gets all the information she needs, aligning with her motivations and comprehensive information processing style.</t>
+Facets: Information Processing Style, Motivations
+Why: After scrolling, Abi will find detailed information about the accommodation, including the hotel name, location, amenities, and reasons to stay there. This comprehensive information aligns with her information processing style, as it allows her to gather all the necessary details to make an informed decision. The page provides all the relevant information she needs, confirming that she is making progress toward her goal of finding out where people are staying.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: Deciding how many days to stay at the conference is a critical part of making travel arrangements. Abi would need to know the duration of her stay to book accommodations and make travel plans accordingly. This subgoal directly aligns with her motivation to organize her trip effectively and comprehensively gather all necessary information to make informed decisions.</t>
+Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi would need to know the duration of her stay to book accommodation and plan her travel. This aligns with her motivation to accomplish her tasks effectively and her comprehensive information processing style, as she would consider all necessary details to form a complete understanding of her travel plans.</t>
         </is>
       </c>
     </row>
@@ -497,17 +497,17 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Program" tab in the navigation menu is a logical place to look for information about the conference schedule, which would help Abi determine how many days to stay. The page layout and clear labeling make it easy for Abi to identify the "Program" tab as the next step to find the information she needs. This aligns with her motivations to plan her trip effectively and her comprehensive information processing style.</t>
+Facets: Information Processing Style, Motivations
+Why: The "Program" option is clearly visible in the navigation menu at the top of the page. Abi, who is looking to determine how many days to stay at the conference, would logically consider checking the program to see the schedule of events. This aligns with her motivation to gather necessary information for her travel plans and her comprehensive information processing style, as she would look for detailed information about the conference schedule to make an informed decision.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Learning Style
-Why: After clicking on "Program," Abi is presented with a dropdown menu containing multiple options such as "Complete Program," "Week Overview," "Industry Program," and more. While this menu does provide paths to relevant information, the variety of options may overwhelm Abi due to her low computer self-efficacy and preference for process-oriented learning. Without clear guidance on which option to choose to determine how many days to stay, Abi might hesitate or be unsure if she is making progress toward her goal.</t>
+          <t>Answer: YES
+Facets: Information Processing Style, Motivations
+Why: After clicking on "Program," Abi is presented with a dropdown menu that includes options such as "Complete Program," "Week Overview," and "Filter by Day." These options are directly related to her goal of determining how many days to stay at the conference. The clear and relevant information helps Abi know she is making progress toward her goal and provides her with the necessary details to continue her travel arrangements. This aligns with her motivation to gather necessary information and her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Week Overview" option in the dropdown menu under "Program" is clearly labeled and intuitively suggests that it will provide a summary of the conference schedule for the entire week. This aligns with Abi's motivation to determine how many days to stay at the conference and fits her comprehensive information processing style. The page layout and labeling make it clear and straightforward for Abi to know what to do next.</t>
+Facets: Information Processing Style, Motivations
+Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program." Abi, who is trying to determine how many days to stay at the conference, would logically consider clicking on "Week Overview" to get a summary of the events throughout the week. This aligns with her motivation to gather necessary information for her travel plans and her comprehensive information processing style, as she would look for detailed information about the conference schedule to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking on "Week Overview," Abi is presented with a clear and well-organized schedule of the conference events for each day. This overview allows her to see the full duration of the conference and the specific events occurring each day. This directly addresses her subgoal of determining how many days to stay at the conference. The visual representation and detailed breakdown of the schedule provide all the information she needs to make an informed decision, confirming that she is making progress toward her goal.</t>
+Facets: Information Processing Style, Motivations
+Why: After clicking on "Week Overview," Abi is presented with a detailed schedule of the conference events for each day. This comprehensive overview allows her to see the entire week's activities at a glance, helping her determine how many days she needs to stay at the conference. The clear and organized presentation of information confirms that she is making progress toward her goal and provides all the necessary details she needs to make an informed decision about her stay. This aligns with her motivation to gather necessary information and her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -533,8 +533,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Learning Style, Information Processing Style
-Why: While the page does provide a comprehensive week overview, Abi might not immediately understand that clicking on "Tracks" would provide additional relevant information about the conference schedule and specific sessions. Given her low computer self-efficacy and preference for guided, process-oriented learning, Abi may hesitate or be unsure whether this action is necessary or beneficial. Additionally, without clear instructions or indications that further details can be found under "Tracks," she might not feel confident taking this step.</t>
+Facets: Computer Self-Efficacy, Attitude Toward Risk
+Why: While the "Tracks" option is visible in the navigation menu, Abi may not be confident in knowing that clicking on "Tracks" will provide additional information relevant to determining how many days to stay at the conference. The current page already provides a comprehensive week overview, and without explicit guidance or a clear indication that "Tracks" will offer further necessary details, Abi might be hesitant to take this action due to her low computer self-efficacy and risk-averse nature. She might prefer to stick with the information already presented rather than exploring potentially unfamiliar sections.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style
-Why: After clicking on "Tracks," Abi is presented with a dropdown menu containing numerous options related to different tracks and co-hosted conferences. While this menu provides various paths to more specific information, it may be overwhelming for Abi due to her low computer self-efficacy and need for clear, guided steps. The extensive list may not immediately help her determine how many days to stay at the conference, and without clear directions or an obvious next step, Abi might feel unsure if she is making progress toward her goal or if she did the right thing.</t>
+Facets: Information Processing Style, Computer Self-Efficacy
+Why: After clicking on "Tracks," Abi is presented with a dropdown menu listing various tracks and co-hosted conferences. However, this page does not provide a clear indication that she is making progress toward determining how many days to stay at the conference. The information is fragmented and requires further exploration, which may be overwhelming for Abi given her low computer self-efficacy. Additionally, the comprehensive information processing style Abi prefers is not supported here, as she would need to click on multiple links to gather the necessary details, making it difficult for her to feel confident that she is on the right path.</t>
         </is>
       </c>
     </row>

--- a/outputs/PATTAYA4.xlsx
+++ b/outputs/PATTAYA4.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is making travel arrangements and would logically want to know where other attendees are staying to make informed decisions about her own accommodation. This aligns with her motivation to accomplish her travel planning tasks effectively. Additionally, her comprehensive information processing style would lead her to gather all relevant details, including where others are staying, to form a complete understanding of her travel plans.</t>
+Facets: 1. Motivations
+Why: Abi is attending the conference and would likely be motivated to know where other attendees are staying to make her travel arrangements more convenient and possibly to network. This aligns with her motivation to attend the conference and make necessary travel plans.</t>
         </is>
       </c>
     </row>
@@ -435,16 +435,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and prominently displayed on the page, making it easy for Abi to identify it as a relevant link for her subgoal of finding out where people are staying. This aligns with her motivation to gather necessary travel information. Additionally, the page is not overwhelming and provides a clear path to more detailed information, which suits her comprehensive information processing style.</t>
+Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. It suggests information related to attendance, which aligns with her motivation to find out where people are staying. The page layout is straightforward, making it easy for Abi to identify this as a logical step in her process.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking on "Attending," Abi is presented with a dropdown menu with multiple options. While "Accommodation" is listed, Abi might not immediately know that this is the right option to find out where people are staying. The page does not provide explicit guidance or confirmation that she is on the right track, which could be confusing for her. Given her comprehensive information processing style, she might feel uncertain about which option to choose without more context. Additionally, her low computer self-efficacy and preference for process-oriented learning mean she might struggle with the lack of clear instructions or confirmation that she is making progress toward her goal.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation" and "Venue," which are directly related to her goal of finding out where people are staying. This indicates she is making progress toward her goal, and the options provide a clear path to the information she needs.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly listed under the "Attending" dropdown menu, making it straightforward for Abi to identify it as the next step in finding out where people are staying. This aligns with her motivation to gather necessary travel information. The page is not overwhelming and provides a clear path to more detailed information, which suits her comprehensive information processing style. The label "Accommodation" is intuitive and directly related to her subgoal, so she will likely know what to do at this step.</t>
+Why: The "Accommodation" option is clearly listed under the "Attending" dropdown menu, which directly relates to Abi's goal of finding out where people are staying. The page provides a straightforward path for her to follow, making it easy for her to know what to do next.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its amenities, location, and the benefits of staying there. This directly addresses her subgoal of finding out where people are staying. The page is well-organized and not overwhelming, which aligns with her comprehensive information processing style. The information is clear and relevant, so Abi will know that she is making progress toward her goal and has the necessary details to make informed travel arrangements.</t>
+Why: After clicking on "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location, amenities, and registration details. This confirms she is making progress toward her goal of finding out where people are staying and provides the comprehensive information she needs.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page is well-organized and provides a clear overview of the accommodation details. Abi, with her comprehensive information processing style, will likely scroll down to ensure she has all the necessary information. The page layout and content are conducive to scrolling, and the information is presented in a logical and accessible manner, making it easy for Abi to know what to do at this step. Scrolling aligns with her need to gather complete information before making decisions.</t>
+Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style aligns with scrolling to ensure she gathers all necessary details.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling, Abi will find detailed information about the conference hotel, including its amenities, location, and the benefits of staying there. This directly addresses her subgoal of finding out where people are staying. The page provides comprehensive information in a clear and organized manner, which aligns with her information processing style. Abi will know that she is making progress toward her goal and has the necessary details to make informed travel arrangements. The information is sufficient and relevant, ensuring she gets all the details she needs.</t>
+Facets: 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal and provides the comprehensive details she needs.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi would need to know the duration of the conference to plan her stay effectively. This aligns with her motivation to gather all necessary travel information. Additionally, her comprehensive information processing style would lead her to consider the duration of the conference as an essential detail to form a complete understanding of her travel plans. Therefore, she would have thought of this as a step toward achieving the overall use case.</t>
+Facets: 1. Motivations
+Why: Abi is making travel arrangements for the conference, so determining how many days to stay is a logical step in planning her trip. This decision is essential for booking accommodations and aligning with her motivation to attend the conference.</t>
         </is>
       </c>
     </row>
@@ -498,16 +498,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" option is clearly visible in the navigation menu at the top of the page. Abi, who is motivated to gather all necessary travel information, would recognize that the conference program would provide details on the schedule and duration of the event. This aligns with her comprehensive information processing style, as she would seek out detailed information to determine how many days to stay at the conference. The page layout and navigation are clear, making it easy for her to know what to do at this step.</t>
+Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking on "Program," Abi is presented with a dropdown menu with multiple options related to the conference program. While these options are relevant, the page does not provide explicit guidance or confirmation that she is on the right track to determine how many days to stay at the conference. Given her comprehensive information processing style, she might feel uncertain about which specific option to choose without more context. Additionally, her low computer self-efficacy and preference for process-oriented learning mean she might struggle with the lack of clear instructions or confirmation that she is making progress toward her goal. The dropdown menu presents too many choices without clear direction, which could be overwhelming for her.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Program," Abi sees a dropdown with options like "Complete Program" and specific dates, which directly relate to determining how many days to stay. This confirms she is making progress toward her goal and provides the necessary information to plan her stay.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option in the dropdown menu under "Program" is clearly labeled and intuitively suggests that it will provide a summary of the conference schedule. Abi, who is motivated to determine how many days to stay at the conference, would recognize this as a relevant option. The page layout and navigation are clear, making it easy for her to know what to do at this step. This aligns with her comprehensive information processing style, as she would seek out detailed information to form a complete understanding of the conference schedule.</t>
+Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program," which suggests it will provide a summary of the conference schedule. This aligns with Abi's motivation to determine how many days to stay and fits her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Week Overview," Abi lands on a page that provides a detailed schedule of the conference week, including co-located events, workshops, and the main conference sessions. This directly addresses her subgoal of determining how many days to stay at the conference. The information is presented in a clear and organized manner, making it easy for her to understand the duration and structure of the conference. This aligns with her motivation to gather necessary travel information and her comprehensive information processing style, as she will be able to see the full schedule and make an informed decision about her stay.</t>
+Why: The "Week Overview" page provides a clear schedule of events across the conference days. This helps Abi determine how many days to stay, confirming she is making progress toward her goal and providing the comprehensive information she needs.</t>
         </is>
       </c>
     </row>
@@ -533,8 +533,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Week Overview" page already provides a comprehensive schedule of the conference, which should be sufficient for Abi to determine how many days to stay. Clicking on "Tracks" might not be immediately clear as the next step for her, especially since the current page already offers detailed information. Given her comprehensive information processing style, she might feel uncertain about whether additional information from the "Tracks" section is necessary. Additionally, her low computer self-efficacy and preference for process-oriented learning mean she might struggle with the lack of clear instructions or confirmation that this action is needed. The page does not provide explicit guidance that clicking on "Tracks" will offer additional relevant information for her subgoal.</t>
+Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy
+Why: The "Tracks" section is not clearly indicated as providing additional information about the duration of the conference. Abi might not feel confident that clicking "Tracks" will help her determine how many days to stay, as the current page already provides a comprehensive overview.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking on "Tracks," Abi is presented with a dropdown menu listing various tracks and co-hosted conferences. While this information is relevant, it does not directly provide a clear overview of the conference duration or how many days she should stay. Given her comprehensive information processing style, she might feel uncertain about which specific track to choose without more context. Additionally, her low computer self-efficacy and preference for process-oriented learning mean she might struggle with the lack of clear instructions or confirmation that this action is needed. The dropdown menu presents too many choices without clear direction, which could be overwhelming for her and does not directly address her subgoal.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Tracks" dropdown provides a list of tracks and co-hosted conferences, but it doesn't clearly indicate how this information helps determine the number of days to stay. Abi might not feel confident that this action is progressing toward her goal, as the connection to her subgoal isn't explicit.</t>
         </is>
       </c>
     </row>

--- a/outputs/PATTAYA4.xlsx
+++ b/outputs/PATTAYA4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is attending the conference and would likely be motivated to know where other attendees are staying to make her travel arrangements more convenient and possibly to network. This aligns with her motivation to attend the conference and make necessary travel plans.</t>
+Why: Abi is making travel arrangements for the conference, and knowing where people are staying is a logical step in planning her trip. It aligns with her motivation to attend the conference and ensure she has suitable accommodations.</t>
         </is>
       </c>
     </row>
@@ -435,16 +435,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. It suggests information related to attendance, which aligns with her motivation to find out where people are staying. The page layout is straightforward, making it easy for Abi to identify this as a logical step in her process.</t>
+Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. It suggests information related to attendance, which likely includes accommodation details. This aligns with her motivation to find out where people are staying and fits her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation" and "Venue," which are directly related to her goal of finding out where people are staying. This indicates she is making progress toward her goal, and the options provide a clear path to the information she needs.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking "Attending," Abi sees a dropdown menu with various options, but it doesn't directly provide information about where people are staying. She might not immediately know she is making progress toward her goal, as she needs to choose the correct option, like "Accommodation," to find the relevant information. This requires additional steps and decision-making, which might not be clear to her.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly listed under the "Attending" dropdown menu, which directly relates to Abi's goal of finding out where people are staying. The page provides a straightforward path for her to follow, making it easy for her to know what to do next.</t>
+Why: The "Accommodation" option is clearly labeled in the dropdown menu under "Attending," which directly relates to Abi's goal of finding out where people are staying. This aligns with her motivation and comprehensive information processing style, making it clear that clicking on "Accommodation" is the right step to take.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location, amenities, and registration details. This confirms she is making progress toward her goal of finding out where people are staying and provides the comprehensive information she needs.</t>
+Why: After clicking on "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its name, location, and benefits of staying there. This directly addresses her goal of finding out where people are staying, confirming she made the right choice and is making progress. The comprehensive details align with her information processing style.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style aligns with scrolling to ensure she gathers all necessary details.</t>
+Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style means she is likely to scroll to ensure she sees all relevant details about where people are staying.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal and provides the comprehensive details she needs.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits. This confirms she is making progress toward her goal of knowing where people are staying. The comprehensive details provided align with her motivation and information processing style, ensuring she gets all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is making travel arrangements for the conference, so determining how many days to stay is a logical step in planning her trip. This decision is essential for booking accommodations and aligning with her motivation to attend the conference.</t>
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi would naturally consider this as part of her planning process to ensure she attends the necessary sessions and events. This aligns with her motivation to effectively plan her trip.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style.</t>
+Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events and sessions. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style. The page provides clear navigation to the program section.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Program," Abi sees a dropdown with options like "Complete Program" and specific dates, which directly relate to determining how many days to stay. This confirms she is making progress toward her goal and provides the necessary information to plan her stay.</t>
+Why: After clicking on "Program," Abi sees a dropdown menu with options like "Complete Program" and specific dates. This indicates she is on the right track to finding the schedule and determining how many days to stay. The clear options align with her motivation and information processing style, helping her make progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program," which suggests it will provide a summary of the conference schedule. This aligns with Abi's motivation to determine how many days to stay and fits her comprehensive information processing style.</t>
+Why: The "Week Overview" option is clearly labeled and suggests it will provide a summary of the conference schedule. This aligns with Abi's motivation to determine how many days to stay and fits her comprehensive information processing style, making it a logical step to take.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear schedule of events across the conference days. This helps Abi determine how many days to stay, confirming she is making progress toward her goal and providing the comprehensive information she needs.</t>
+Why: The "Week Overview" page provides a clear schedule of events across the conference days. This helps Abi determine how many days to stay, confirming she made the right choice. The detailed overview aligns with her motivation and comprehensive information processing style, ensuring she gets all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -533,8 +533,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy
-Why: The "Tracks" section is not clearly indicated as providing additional information about the duration of the conference. Abi might not feel confident that clicking "Tracks" will help her determine how many days to stay, as the current page already provides a comprehensive overview.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page already provides a comprehensive overview of the conference schedule. Clicking on "Tracks" might not be an obvious next step for Abi, as she may not be confident it will provide additional relevant information. Without clear guidance or indication that "Tracks" will help her further, she might hesitate to take this action.</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Tracks" dropdown provides a list of tracks and co-hosted conferences, but it doesn't clearly indicate how this information helps determine the number of days to stay. Abi might not feel confident that this action is progressing toward her goal, as the connection to her subgoal isn't explicit.</t>
+Why: The dropdown menu under "Tracks" presents many options, but it doesn't directly indicate how it will help Abi determine how many days to stay. Without clear guidance or a direct link to her goal, she might not feel confident that she is making progress or getting the necessary information.</t>
         </is>
       </c>
     </row>

--- a/outputs/PATTAYA4.xlsx
+++ b/outputs/PATTAYA4.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations
-Why: Abi is making travel arrangements for the conference, and knowing where people are staying is a logical step in planning her trip. It aligns with her motivation to attend the conference and ensure she has suitable accommodations.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to attend the conference and would likely consider knowing where people are staying as part of her travel arrangements. This aligns with her motivation to ensure a smooth trip. Additionally, her comprehensive information processing style would lead her to gather details about accommodations as part of her planning.</t>
         </is>
       </c>
     </row>
@@ -435,115 +435,115 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. It suggests information related to attendance, which likely includes accommodation details. This aligns with her motivation to find out where people are staying and fits her comprehensive information processing style.</t>
+Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. Her motivation to attend the conference and gather necessary information aligns with clicking on this section. Additionally, her comprehensive information processing style would lead her to explore this area for relevant details.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation" and "Venue," which are directly related to her goal of finding out where people are staying. This clear navigation indicates she is making progress toward her goal, and the options provide the necessary information she needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Accommodation" option is clearly visible in the dropdown menu under "Attending," which directly relates to Abi's goal of finding out where people are staying. Her motivation to gather this information and her comprehensive information processing style make it likely that she will know to click on this option to proceed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location, amenities, and registration details. This confirms she is making progress toward her goal of finding out where people are staying, and the comprehensive information aligns with her information processing style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style would lead her to scroll to ensure she gathers all relevant details about where people are staying.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal and provides her with the comprehensive information she needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi's motivation to attend and her comprehensive information processing style would lead her to consider the duration of her stay as an important step in her planning process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" section is likely to contain the schedule of events, which is essential for Abi to determine how many days to stay. Her motivation to plan her trip effectively and her comprehensive information processing style would guide her to click on "Program" to gather this information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Program," Abi sees a dropdown with options like "Complete Program" and specific dates, which are relevant for determining how many days to stay. This indicates she is making progress toward her goal, and the options provide the necessary information she needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" option is clearly visible in the dropdown menu and is relevant for understanding the conference schedule. Abi's motivation to plan her stay and her comprehensive information processing style would guide her to click on this option to gather the necessary information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" page provides a clear schedule of events across the conference days. Abi can see the main conference and co-located events, helping her determine how many days to stay. This confirms she is making progress toward her goal and provides the comprehensive information she needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy
+Why: The page does not provide clear guidance or indication that clicking on "Tracks" will help Abi determine how many days to stay. Without explicit information or direction, Abi might be hesitant to take this action due to her low confidence in unfamiliar tasks and risk-averse nature.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking "Attending," Abi sees a dropdown menu with various options, but it doesn't directly provide information about where people are staying. She might not immediately know she is making progress toward her goal, as she needs to choose the correct option, like "Accommodation," to find the relevant information. This requires additional steps and decision-making, which might not be clear to her.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly labeled in the dropdown menu under "Attending," which directly relates to Abi's goal of finding out where people are staying. This aligns with her motivation and comprehensive information processing style, making it clear that clicking on "Accommodation" is the right step to take.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its name, location, and benefits of staying there. This directly addresses her goal of finding out where people are staying, confirming she made the right choice and is making progress. The comprehensive details align with her information processing style.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style means she is likely to scroll to ensure she sees all relevant details about where people are staying.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits. This confirms she is making progress toward her goal of knowing where people are staying. The comprehensive details provided align with her motivation and information processing style, ensuring she gets all the information she needs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations
-Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi would naturally consider this as part of her planning process to ensure she attends the necessary sessions and events. This aligns with her motivation to effectively plan her trip.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events and sessions. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style. The page provides clear navigation to the program section.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Program," Abi sees a dropdown menu with options like "Complete Program" and specific dates. This indicates she is on the right track to finding the schedule and determining how many days to stay. The clear options align with her motivation and information processing style, helping her make progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option is clearly labeled and suggests it will provide a summary of the conference schedule. This aligns with Abi's motivation to determine how many days to stay and fits her comprehensive information processing style, making it a logical step to take.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear schedule of events across the conference days. This helps Abi determine how many days to stay, confirming she made the right choice. The detailed overview aligns with her motivation and comprehensive information processing style, ensuring she gets all the information she needs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page already provides a comprehensive overview of the conference schedule. Clicking on "Tracks" might not be an obvious next step for Abi, as she may not be confident it will provide additional relevant information. Without clear guidance or indication that "Tracks" will help her further, she might hesitate to take this action.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The dropdown menu under "Tracks" presents many options, but it doesn't directly indicate how it will help Abi determine how many days to stay. Without clear guidance or a direct link to her goal, she might not feel confident that she is making progress or getting the necessary information.</t>
+Why: The dropdown menu under "Tracks" provides a list of options, but it doesn't clearly indicate how it will help Abi determine the number of days to stay. Without explicit guidance or a direct link to her goal, Abi might not feel confident that she is making progress, and the information may not be comprehensive enough for her needs.</t>
         </is>
       </c>
     </row>
